--- a/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
+++ b/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="a" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Demo data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t xml:space="preserve">Project ID</t>
   </si>
@@ -217,7 +217,10 @@
     <t xml:space="preserve">Tender</t>
   </si>
   <si>
-    <t xml:space="preserve">121</t>
+    <t xml:space="preserve">Program Implementing Agent:  Transport and Public Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/50042742/SDS</t>
   </si>
   <si>
     <t xml:space="preserve"> GREEN PRIMARY SCHOOL</t>
@@ -250,7 +253,7 @@
     <t xml:space="preserve">RED SECONDARY SCHOOL</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfds</t>
+    <t xml:space="preserve">Okhahlamba</t>
   </si>
   <si>
     <t xml:space="preserve">Uthukela</t>
@@ -289,9 +292,6 @@
     <t xml:space="preserve">Program Implementing Agent:  CDC</t>
   </si>
   <si>
-    <t xml:space="preserve">Main Contractor:  Delevex 302cc</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR2455</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Principal Agent:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Program Implementing Agent:  DRPW</t>
+    <t xml:space="preserve">Principal Agent:  Nelson Barabosa Architects</t>
   </si>
   <si>
     <t xml:space="preserve">Modded Modular Library</t>
@@ -331,9 +331,6 @@
     <t xml:space="preserve">Principal Agent:  Fabricated Steel Manufacturing</t>
   </si>
   <si>
-    <t xml:space="preserve">Program Implementing Agent:  DPW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dreizehn Laerskool</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t xml:space="preserve">Program Implementing Agent:  Department of Public Works</t>
   </si>
   <si>
-    <t xml:space="preserve">Main Contractor:  o</t>
-  </si>
-  <si>
     <t xml:space="preserve">FBL</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
     <t xml:space="preserve">Raymond Mhlaba</t>
   </si>
   <si>
-    <t xml:space="preserve">dsf</t>
-  </si>
-  <si>
     <t xml:space="preserve">100303 (2)</t>
   </si>
   <si>
@@ -380,9 +371,6 @@
   </si>
   <si>
     <t xml:space="preserve">Project Initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Contractor:  0</t>
   </si>
 </sst>
 </file>
@@ -395,7 +383,7 @@
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="167" formatCode="\ * #,##0.00\ ;\-* #,##0.00\ ;\ * \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -418,6 +406,95 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -425,15 +502,63 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -441,8 +566,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -468,8 +608,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,19 +673,100 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Accent 1 17" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 16" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2 18" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3 19" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad 13" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error 15" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote 8" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good 11" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1 4" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2 5" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink 9" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral 12" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note 7" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status 10" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text 6" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning 14" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -503,10 +775,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CX12"/>
+  <dimension ref="A1:CR51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,73 +878,73 @@
         <v>29</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BB1" s="0" t="s">
         <v>47</v>
@@ -801,24 +1073,6 @@
         <v>47</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CS1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CT1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CU1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CV1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CW1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CX1" s="0" t="s">
         <v>47</v>
       </c>
     </row>
@@ -904,37 +1158,19 @@
       <c r="AD2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" s="0" t="n">
-        <v>61000</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>276000</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>337000</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="0" t="s">
+      <c r="AI2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" s="0" t="s">
+      <c r="AJ2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="AQ2" s="0" t="s">
+      <c r="AK2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="0" t="s">
+      <c r="AL2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB2" s="0" t="s">
+      <c r="AV2" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1020,49 +1256,34 @@
       <c r="AD3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="0" t="n">
-        <v>307000</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>1397000</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>1704000</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="0" t="s">
+      <c r="AI3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="0" t="s">
+      <c r="AJ3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="0" t="s">
+      <c r="AK3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="0" t="s">
+      <c r="AL3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" s="0" t="s">
+      <c r="AV3" s="0" t="s">
         <v>59</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4210</v>
+        <v>28123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -1071,10 +1292,10 @@
         <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>-30.0057</v>
@@ -1083,7 +1304,7 @@
         <v>30.92655</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>42535</v>
@@ -1133,31 +1354,19 @@
       <c r="AD4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="0" t="s">
+      <c r="AI4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AP4" s="0" t="s">
+      <c r="AJ4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="AQ4" s="0" t="s">
+      <c r="AK4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AR4" s="0" t="s">
+      <c r="AL4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB4" s="0" t="s">
+      <c r="AV4" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1166,10 +1375,10 @@
         <v>28128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -1178,7 +1387,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>63</v>
@@ -1190,7 +1399,7 @@
         <v>30.39356</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>42534</v>
@@ -1252,37 +1461,19 @@
       <c r="AD5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" s="0" t="n">
-        <v>64000</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>242000</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>306000</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="0" t="s">
+      <c r="AI5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AP5" s="0" t="s">
+      <c r="AJ5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="AQ5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR5" s="0" t="s">
+      <c r="AK5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB5" s="0" t="s">
+      <c r="AV5" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1291,10 +1482,10 @@
         <v>28120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -1303,10 +1494,10 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-28.68108</v>
@@ -1315,7 +1506,7 @@
         <v>29.04638</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>42420</v>
@@ -1372,42 +1563,30 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>200000</v>
+        <v>20075</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AI6" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>20075</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="0" t="s">
+      <c r="AG6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="AP6" s="0" t="s">
+      <c r="AJ6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="AQ6" s="0" t="s">
+      <c r="AK6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AR6" s="0" t="s">
+      <c r="AL6" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="0" t="s">
+      <c r="AV6" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1416,22 +1595,22 @@
         <v>12217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>-32.33235</v>
@@ -1440,7 +1619,7 @@
         <v>28.14463</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>42670</v>
@@ -1496,46 +1675,31 @@
       <c r="AD7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AE7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>474455</v>
+      </c>
       <c r="AG7" s="0" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AI7" s="0" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="0" t="n">
-        <v>474455</v>
-      </c>
-      <c r="AM7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP7" s="0" t="s">
+      <c r="AI7" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AQ7" s="0" t="s">
+      <c r="AJ7" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AR7" s="0" t="s">
+      <c r="AK7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB7" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC7" s="0" t="s">
+      <c r="AV7" s="0" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1550,10 +1714,10 @@
         <v>91</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>92</v>
@@ -1615,50 +1779,38 @@
       <c r="AD8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG8" s="0" t="n">
-        <v>275000</v>
-      </c>
-      <c r="AH8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <v>275000</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="0" t="s">
+      <c r="AI8" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="AP8" s="0" t="s">
+      <c r="AJ8" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AQ8" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR8" s="0" t="s">
+      <c r="AK8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL8" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB8" s="0" t="s">
+      <c r="AV8" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BC8" s="0" t="s">
+      <c r="AY8" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>121212121</v>
+        <v>12232</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>99</v>
@@ -1670,7 +1822,7 @@
         <v>-31.6727543</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>101</v>
+        <v>27.9834738</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>101</v>
@@ -1723,35 +1875,20 @@
       <c r="AD9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="0" t="n">
-        <v>350000</v>
-      </c>
-      <c r="AH9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="0" t="n">
-        <v>350000</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="0" t="s">
+      <c r="AI9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="AP9" s="0" t="s">
+      <c r="AJ9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AQ9" s="0" t="s">
+      <c r="AK9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AR9" s="0" t="s">
+      <c r="AL9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB9" s="0" t="s">
+      <c r="AV9" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="BC9" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,19 +1899,19 @@
         <v>100328</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>-26.8472</v>
@@ -1783,7 +1920,7 @@
         <v>26.76787</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>42046</v>
@@ -1833,62 +1970,47 @@
       <c r="AD10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG10" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AH10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="0" t="s">
+      <c r="AI10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AP10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ10" s="0" t="s">
+      <c r="AL10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="AR10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS10" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="AT10" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="AU10" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC10" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,22 +2018,22 @@
         <v>12255</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>-32.76633</v>
@@ -1920,7 +2042,7 @@
         <v>26.61996</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>42461</v>
@@ -1970,58 +2092,43 @@
       <c r="AD11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG11" s="0" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="AH11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="0" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="0" t="s">
+      <c r="AI11" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="AP11" s="0" t="s">
+      <c r="AJ11" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AQ11" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR11" s="0" t="s">
+      <c r="AK11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BB11" s="0" t="s">
+      <c r="AV11" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="BC11" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>1</v>
+        <v>14318</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>-26.84655</v>
@@ -2030,7 +2137,7 @@
         <v>26.86567</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>42430</v>
@@ -2074,68 +2181,155 @@
       <c r="AD12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" s="0" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AH12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="0" t="s">
+      <c r="AI12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AP12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ12" s="0" t="s">
+      <c r="AL12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AR12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC12" s="0" t="s">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB51" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
+++ b/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
@@ -383,7 +383,7 @@
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="167" formatCode="\ * #,##0.00\ ;\-* #,##0.00\ ;\ * \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -406,95 +406,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -502,63 +413,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -566,23 +429,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,59 +456,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,100 +470,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent 1 17" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 16" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2 18" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3 19" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad 13" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error 15" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote 8" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good 11" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1 4" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2 5" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink 9" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral 12" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note 7" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status 10" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text 6" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning 14" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -775,10 +491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CR51"/>
+  <dimension ref="A1:CR12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="AB13" activeCellId="0" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2223,108 +1939,6 @@
       <c r="AV12" s="0" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB33" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB38" s="4"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB42" s="4"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB43" s="4"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB44" s="4"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB45" s="4"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB48" s="4"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB50" s="4"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB51" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
+++ b/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t xml:space="preserve">Project ID</t>
   </si>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">Total Project Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Project Projected Expenditure from Previous Financial Years (Professional Fees)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Expenditure from Previous Financial Years (Professional Fees)</t>
   </si>
   <si>
@@ -134,33 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Funding Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. jobs created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. youth employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. women employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. people with disabilities employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. FTEs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. people trained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person days worked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average employment period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum wage</t>
   </si>
   <si>
     <t xml:space="preserve">Project Contractor</t>
@@ -476,12 +446,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -491,10 +461,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CR12"/>
+  <dimension ref="A1:CH12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB13" activeCellId="0" sqref="AB13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,178 +588,148 @@
         <v>37</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CJ1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CK1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CL1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CM1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CN1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CO1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CP1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CQ1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="CR1" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,22 +737,22 @@
         <v>30682</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>-30.03029</v>
@@ -821,7 +761,7 @@
         <v>29.60355</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>42534</v>
@@ -844,50 +784,47 @@
       <c r="S2" s="3" t="n">
         <v>680000</v>
       </c>
-      <c r="T2" s="0" t="n">
-        <v>446279</v>
-      </c>
-      <c r="U2" s="3" t="n">
+      <c r="T2" s="3" t="n">
         <v>556479</v>
       </c>
+      <c r="V2" s="0" t="n">
+        <v>556479</v>
+      </c>
       <c r="W2" s="0" t="n">
-        <v>556479</v>
+        <v>1315479</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>1315479</v>
+        <v>61000</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>0</v>
+        <v>276000</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>276000</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>0</v>
+        <v>337000</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>337000</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,22 +832,22 @@
         <v>29210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>-29.96148</v>
@@ -919,7 +856,7 @@
         <v>30.21308</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>42544</v>
@@ -943,52 +880,49 @@
         <v>2250000</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>314305</v>
-      </c>
-      <c r="U3" s="0" t="n">
         <v>451096</v>
       </c>
+      <c r="V3" s="0" t="n">
+        <v>451096</v>
+      </c>
       <c r="W3" s="0" t="n">
-        <v>451096</v>
+        <v>2505096</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>2505096</v>
+        <v>307000</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>307000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>0</v>
+        <v>1397000</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1397000</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>0</v>
+        <v>1704000</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1704000</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="AI3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY3" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,22 +930,22 @@
         <v>28123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>-30.0057</v>
@@ -1020,7 +954,7 @@
         <v>30.92655</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>42535</v>
@@ -1044,46 +978,43 @@
         <v>270270</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>175658</v>
+        <v>242448</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>242448</v>
+        <v>77610</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>77610</v>
+        <v>320058</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>320058</v>
-      </c>
-      <c r="X4" s="0" t="n">
         <v>1373058</v>
       </c>
+      <c r="Z4" s="0" t="n">
+        <v>2000</v>
+      </c>
       <c r="AA4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="AB4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,22 +1022,22 @@
         <v>28128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>-29.64888</v>
@@ -1115,7 +1046,7 @@
         <v>30.39356</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>42534</v>
@@ -1145,52 +1076,49 @@
         <v>270270</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>200360</v>
+        <v>391267</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>391267</v>
+        <v>1315291</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>1315291</v>
+        <v>1706558</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>1706558</v>
+        <v>2761558</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>2761558</v>
+        <v>64000</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>64000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>0</v>
+        <v>242000</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>242000</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>0</v>
+        <v>306000</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>306000</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,22 +1126,22 @@
         <v>28120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-28.68108</v>
@@ -1222,7 +1150,7 @@
         <v>29.04638</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>42420</v>
@@ -1252,34 +1180,34 @@
         <v>2413000</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>326579</v>
+        <v>354779</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>354779</v>
+        <v>1604459</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>1604459</v>
+        <v>1959238</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>1959238</v>
+        <v>2159238</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>2159238</v>
+        <v>200000</v>
       </c>
       <c r="Y6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="Z6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC6" s="0" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>0</v>
+        <v>20075</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>20075</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>0</v>
@@ -1287,23 +1215,20 @@
       <c r="AG6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <v>0</v>
+      <c r="AH6" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV6" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,22 +1236,22 @@
         <v>12217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>-32.33235</v>
@@ -1335,7 +1260,7 @@
         <v>28.14463</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>42670</v>
@@ -1368,55 +1293,52 @@
         <v>2287122</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>2287122</v>
+        <v>15447375</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>15447375</v>
+        <v>17734497</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>17734497</v>
-      </c>
-      <c r="X7" s="0" t="n">
         <v>20438497</v>
       </c>
+      <c r="Z7" s="0" t="n">
+        <v>2500000</v>
+      </c>
       <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="n">
         <v>2500000</v>
       </c>
-      <c r="AB7" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC7" s="0" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>0</v>
+        <v>474455</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>474455</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH7" s="0" t="n">
-        <v>0</v>
+      <c r="AH7" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV7" s="0" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,22 +1346,22 @@
         <v>12223</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-31.1595994</v>
@@ -1448,7 +1370,7 @@
         <v>28.8946309</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>42095</v>
@@ -1471,47 +1393,47 @@
       <c r="S8" s="0" t="n">
         <v>25500000</v>
       </c>
+      <c r="T8" s="0" t="n">
+        <v>179968</v>
+      </c>
       <c r="U8" s="0" t="n">
-        <v>179968</v>
+        <v>297839</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>297839</v>
+        <v>477807</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>477807</v>
-      </c>
-      <c r="X8" s="0" t="n">
         <v>12998807</v>
       </c>
+      <c r="Z8" s="0" t="n">
+        <v>275000</v>
+      </c>
       <c r="AA8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="0" t="n">
         <v>275000</v>
       </c>
-      <c r="AB8" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC8" s="0" t="n">
-        <v>275000</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="0" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY8" s="0" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,19 +1442,19 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>-31.6727543</v>
@@ -1541,7 +1463,7 @@
         <v>27.9834738</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>42095</v>
@@ -1570,41 +1492,41 @@
       <c r="S9" s="0" t="n">
         <v>1094000</v>
       </c>
+      <c r="U9" s="0" t="n">
+        <v>1093510</v>
+      </c>
       <c r="V9" s="0" t="n">
         <v>1093510</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>1093510</v>
-      </c>
-      <c r="X9" s="0" t="n">
         <v>1443510</v>
       </c>
+      <c r="Z9" s="0" t="n">
+        <v>350000</v>
+      </c>
       <c r="AA9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="0" t="n">
         <v>350000</v>
       </c>
-      <c r="AB9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC9" s="0" t="n">
-        <v>350000</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="AK9" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV9" s="0" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,19 +1537,19 @@
         <v>100328</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>-26.8472</v>
@@ -1636,7 +1558,7 @@
         <v>26.76787</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>42046</v>
@@ -1665,68 +1587,41 @@
       <c r="S10" s="0" t="n">
         <v>5661000</v>
       </c>
+      <c r="U10" s="0" t="n">
+        <v>4161366</v>
+      </c>
       <c r="V10" s="0" t="n">
         <v>4161366</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>4161366</v>
-      </c>
-      <c r="X10" s="0" t="n">
         <v>4311366</v>
       </c>
+      <c r="Z10" s="0" t="n">
+        <v>150000</v>
+      </c>
       <c r="AA10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="0" t="n">
         <v>150000</v>
       </c>
-      <c r="AB10" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC10" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK10" s="0" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM10" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="AN10" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="AO10" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="0" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,22 +1629,22 @@
         <v>12255</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>-32.76633</v>
@@ -1758,7 +1653,7 @@
         <v>26.61996</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>42461</v>
@@ -1785,43 +1680,40 @@
         <v>0</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>0</v>
+        <v>144556</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>144556</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>144556</v>
-      </c>
-      <c r="X11" s="0" t="n">
         <v>5685556</v>
       </c>
+      <c r="Z11" s="0" t="n">
+        <v>3500000</v>
+      </c>
       <c r="AA11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
         <v>3500000</v>
       </c>
-      <c r="AB11" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC11" s="0" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV11" s="0" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,22 +1721,22 @@
         <v>14318</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>-26.84655</v>
@@ -1853,7 +1745,7 @@
         <v>26.86567</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>42430</v>
@@ -1876,68 +1768,41 @@
       <c r="S12" s="0" t="n">
         <v>3733000</v>
       </c>
+      <c r="U12" s="0" t="n">
+        <v>702280</v>
+      </c>
       <c r="V12" s="0" t="n">
         <v>702280</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>702280</v>
-      </c>
-      <c r="X12" s="0" t="n">
         <v>726280</v>
       </c>
+      <c r="Z12" s="0" t="n">
+        <v>24000</v>
+      </c>
       <c r="AA12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="0" t="n">
         <v>24000</v>
       </c>
-      <c r="AB12" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AC12" s="0" t="n">
-        <v>24000</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="0" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
+++ b/budgetportal/tests/test_data/test_import_prov_infra_projects.xlsx
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Principal Agent:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Principal Agent:  Nelson Barabosa Architects</t>
+    <t xml:space="preserve">Principal Agent:  This them that</t>
   </si>
   <si>
     <t xml:space="preserve">Modded Modular Library</t>
@@ -298,7 +298,7 @@
     <t xml:space="preserve">Pre - Feasibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Principal Agent:  Fabricated Steel Manufacturing</t>
+    <t xml:space="preserve">Principal Agent:  Fred’s Steel Manufacturing</t>
   </si>
   <si>
     <t xml:space="preserve">Dreizehn Laerskool</t>
@@ -463,8 +463,8 @@
   </sheetPr>
   <dimension ref="A1:CH12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,7 +755,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>-30.03029</v>
+        <v>-30.13029</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>29.60355</v>
@@ -850,7 +850,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>-29.96148</v>
+        <v>-29.86148</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>30.21308</v>
@@ -948,7 +948,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>-30.0057</v>
+        <v>-30.1057</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>30.92655</v>
@@ -1040,7 +1040,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>-29.64888</v>
+        <v>-29.54888</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>30.39356</v>
@@ -1254,7 +1254,7 @@
         <v>75</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>-32.33235</v>
+        <v>-32.23235</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>28.14463</v>
@@ -1364,7 +1364,7 @@
         <v>83</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>-31.1595994</v>
+        <v>-31.0595994</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>28.8946309</v>
@@ -1457,7 +1457,7 @@
         <v>90</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>-31.6727543</v>
+        <v>-31.5727543</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>27.9834738</v>
@@ -1552,7 +1552,7 @@
         <v>97</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>-26.8472</v>
+        <v>-24.8472</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>26.76787</v>
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>-32.76633</v>
+        <v>-32.66633</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>26.61996</v>
@@ -1739,7 +1739,7 @@
         <v>97</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>-26.84655</v>
+        <v>-26.74655</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>26.86567</v>
